--- a/ozone/multistate/train_ozone_VTZP_MS_3_energies.xlsx
+++ b/ozone/multistate/train_ozone_VTZP_MS_3_energies.xlsx
@@ -490,7 +490,7 @@
         <v>-0.5715404485286815</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5707904100418091</v>
+        <v>-0.5705611109733582</v>
       </c>
       <c r="F2" t="n">
         <v>-225.16985899</v>
@@ -499,7 +499,7 @@
         <v>-224.59832086</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.1691112700418</v>
+        <v>-225.1688819709734</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
         <v>-0.5757519096066617</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5766643285751343</v>
+        <v>-0.5808182954788208</v>
       </c>
       <c r="F3" t="n">
         <v>-225.12331019</v>
@@ -531,7 +531,7 @@
         <v>-224.54756031</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.1242246385751</v>
+        <v>-225.1283786054788</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.5706845186185101</v>
+        <v>-0.5706820623871101</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5742830038070679</v>
+        <v>-0.5716240406036377</v>
       </c>
       <c r="F4" t="n">
         <v>-225.18435946</v>
@@ -563,7 +563,7 @@
         <v>-224.61367603</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.1879590338071</v>
+        <v>-225.1853000706036</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         <v>-0.5725243397689629</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5695228576660156</v>
+        <v>-0.5688847303390503</v>
       </c>
       <c r="F5" t="n">
         <v>-225.15596082</v>
@@ -595,7 +595,7 @@
         <v>-224.58343448</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.152957337666</v>
+        <v>-225.152319210339</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>-0.5718434629383771</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5717331171035767</v>
+        <v>-0.5718247890472412</v>
       </c>
       <c r="F6" t="n">
         <v>-225.16530615</v>
@@ -627,7 +627,7 @@
         <v>-224.59346379</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.1651969071036</v>
+        <v>-225.1652885790472</v>
       </c>
     </row>
     <row r="7">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.5740912699578351</v>
+        <v>-0.5740850584291357</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5757986903190613</v>
+        <v>-0.5755828619003296</v>
       </c>
       <c r="F7" t="n">
         <v>-225.13818118</v>
@@ -659,7 +659,7 @@
         <v>-224.56409176</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.1398904503191</v>
+        <v>-225.1396746219003</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.6075328892257265</v>
+        <v>-0.6075337210639622</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.6074914336204529</v>
+        <v>-0.6027548313140869</v>
       </c>
       <c r="F8" t="n">
         <v>-225.15287941</v>
@@ -691,7 +691,7 @@
         <v>-224.54534556</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.1528369936204</v>
+        <v>-225.1481003913141</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.5735347899985808</v>
+        <v>-0.5735269839594007</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5738269686698914</v>
+        <v>-0.5755329132080078</v>
       </c>
       <c r="F9" t="n">
         <v>-225.22168789</v>
@@ -723,7 +723,7 @@
         <v>-224.64816064</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.2219876086699</v>
+        <v>-225.223693553208</v>
       </c>
     </row>
     <row r="10">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.5996903073035114</v>
+        <v>-0.5996908809927513</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6021407842636108</v>
+        <v>-0.6033792495727539</v>
       </c>
       <c r="F10" t="n">
         <v>-225.14954796</v>
@@ -755,7 +755,7 @@
         <v>-224.54985758</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.1519983642636</v>
+        <v>-225.1532368295728</v>
       </c>
     </row>
     <row r="11">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.611996631486077</v>
+        <v>-0.6119886051164722</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6132247447967529</v>
+        <v>-0.6132266521453857</v>
       </c>
       <c r="F11" t="n">
         <v>-225.15481614</v>
@@ -787,7 +787,7 @@
         <v>-224.54282891</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.1560536547968</v>
+        <v>-225.1560555621454</v>
       </c>
     </row>
     <row r="12">
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-0.5696727820568506</v>
+        <v>-0.5696606225578875</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5687493085861206</v>
+        <v>-0.5721268653869629</v>
       </c>
       <c r="F12" t="n">
         <v>-225.20732691</v>
@@ -819,7 +819,7 @@
         <v>-224.63766328</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.2064125885861</v>
+        <v>-225.209790145387</v>
       </c>
     </row>
     <row r="13">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.6067989914444518</v>
+        <v>-0.6068014048398889</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6042206287384033</v>
+        <v>-0.604044497013092</v>
       </c>
       <c r="F13" t="n">
         <v>-225.15255914</v>
@@ -851,7 +851,7 @@
         <v>-224.54575855</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.1499791787384</v>
+        <v>-225.1498030470131</v>
       </c>
     </row>
     <row r="14">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-0.5698038352341934</v>
+        <v>-0.5697975388104934</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.573716402053833</v>
+        <v>-0.5709208250045776</v>
       </c>
       <c r="F14" t="n">
         <v>-225.20381303</v>
@@ -883,7 +883,7 @@
         <v>-224.63402045</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2077368520538</v>
+        <v>-225.2049412750046</v>
       </c>
     </row>
     <row r="15">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.5731821099709913</v>
+        <v>-0.5731775317515413</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5712841749191284</v>
+        <v>-0.5741941928863525</v>
       </c>
       <c r="F15" t="n">
         <v>-225.22079726</v>
@@ -915,7 +915,7 @@
         <v>-224.64761912</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.2189032949191</v>
+        <v>-225.2218133128864</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-0.572057491396363</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5710318088531494</v>
+        <v>-0.5738066434860229</v>
       </c>
       <c r="F16" t="n">
         <v>-225.1622248</v>
@@ -947,7 +947,7 @@
         <v>-224.59016607</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.1611978788532</v>
+        <v>-225.163972713486</v>
       </c>
     </row>
     <row r="17">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.6086684536621314</v>
+        <v>-0.6086667611073406</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.6070742607116699</v>
+        <v>-0.6037358641624451</v>
       </c>
       <c r="F17" t="n">
         <v>-225.1533753</v>
@@ -979,7 +979,7 @@
         <v>-224.54471106</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.1517853207117</v>
+        <v>-225.1484469241624</v>
       </c>
     </row>
     <row r="18">
@@ -1002,7 +1002,7 @@
         <v>-0.5747769951309818</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5770647525787354</v>
+        <v>-0.5785375237464905</v>
       </c>
       <c r="F18" t="n">
         <v>-225.13158491</v>
@@ -1011,7 +1011,7 @@
         <v>-224.5568066</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.1338713525787</v>
+        <v>-225.1353441237465</v>
       </c>
     </row>
     <row r="19">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.5698905092367919</v>
+        <v>-0.5698864165646917</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5730540752410889</v>
+        <v>-0.5718543529510498</v>
       </c>
       <c r="F19" t="n">
         <v>-225.20139687</v>
@@ -1043,7 +1043,7 @@
         <v>-224.63150964</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.2045637152411</v>
+        <v>-225.203363992951</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.6129349153098563</v>
+        <v>-0.6129363580607732</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6127370595932007</v>
+        <v>-0.6126408576965332</v>
       </c>
       <c r="F20" t="n">
         <v>-225.15520998</v>
@@ -1075,7 +1075,7 @@
         <v>-224.54227374</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.1550107995932</v>
+        <v>-225.1549145976965</v>
       </c>
     </row>
     <row r="21">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.6090534673455759</v>
+        <v>-0.609050904995579</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6062874794006348</v>
+        <v>-0.6061501502990723</v>
       </c>
       <c r="F21" t="n">
         <v>-225.15354504</v>
@@ -1107,7 +1107,7 @@
         <v>-224.54449421</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1507816894006</v>
+        <v>-225.1506443602991</v>
       </c>
     </row>
     <row r="22">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5737092040568884</v>
+        <v>-0.5736998334500785</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5756009817123413</v>
+        <v>-0.5759037733078003</v>
       </c>
       <c r="F22" t="n">
         <v>-225.22209185</v>
@@ -1139,7 +1139,7 @@
         <v>-224.64839101</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.2239919917124</v>
+        <v>-225.2242947833078</v>
       </c>
     </row>
     <row r="23">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-0.5985999465986719</v>
+        <v>-0.5986019961550637</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5982275009155273</v>
+        <v>-0.5991919040679932</v>
       </c>
       <c r="F23" t="n">
         <v>-225.14909592</v>
@@ -1171,7 +1171,7 @@
         <v>-224.55049636</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.1487238609155</v>
+        <v>-225.149688264068</v>
       </c>
     </row>
     <row r="24">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.6178644408090801</v>
+        <v>-0.6178720971909979</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6209641098976135</v>
+        <v>-0.6165854930877686</v>
       </c>
       <c r="F24" t="n">
         <v>-225.15700403</v>
@@ -1203,7 +1203,7 @@
         <v>-224.53913558</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.1600996898976</v>
+        <v>-225.1557210730878</v>
       </c>
     </row>
     <row r="25">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.5711599562210325</v>
+        <v>-0.5711676682320826</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5674185752868652</v>
+        <v>-0.5696595907211304</v>
       </c>
       <c r="F25" t="n">
         <v>-225.17578989</v>
@@ -1235,7 +1235,7 @@
         <v>-224.60462164</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.1720402152869</v>
+        <v>-225.1742812307211</v>
       </c>
     </row>
     <row r="26">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.5726483091377447</v>
+        <v>-0.5726489664929151</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5720772743225098</v>
+        <v>-0.5740677714347839</v>
       </c>
       <c r="F26" t="n">
         <v>-225.21924945</v>
@@ -1267,7 +1267,7 @@
         <v>-224.64660048</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2186777543225</v>
+        <v>-225.2206682514348</v>
       </c>
     </row>
     <row r="27">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.5712500711265813</v>
+        <v>-0.5712596654392923</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5687415599822998</v>
+        <v>-0.5722048282623291</v>
       </c>
       <c r="F27" t="n">
         <v>-225.17432261</v>
@@ -1299,7 +1299,7 @@
         <v>-224.60306557</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.1718071299823</v>
+        <v>-225.1752703982623</v>
       </c>
     </row>
     <row r="28">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-0.6011296166246323</v>
+        <v>-0.6011189721848922</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5999617576599121</v>
+        <v>-0.600594162940979</v>
       </c>
       <c r="F28" t="n">
         <v>-225.15014391</v>
@@ -1331,7 +1331,7 @@
         <v>-224.54902024</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1489819976599</v>
+        <v>-225.149614402941</v>
       </c>
     </row>
     <row r="29">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.5719226629305909</v>
+        <v>-0.5719309629901309</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5703054070472717</v>
+        <v>-0.5715209245681763</v>
       </c>
       <c r="F29" t="n">
         <v>-225.21677598</v>
@@ -1363,7 +1363,7 @@
         <v>-224.64484545</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.2151508570473</v>
+        <v>-225.2163663745682</v>
       </c>
     </row>
     <row r="30">
@@ -1386,7 +1386,7 @@
         <v>-0.56958428946927</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5683484673500061</v>
+        <v>-0.5695787072181702</v>
       </c>
       <c r="F30" t="n">
         <v>-225.2095936</v>
@@ -1395,7 +1395,7 @@
         <v>-224.64000756</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.20835602735</v>
+        <v>-225.2095862672182</v>
       </c>
     </row>
     <row r="31">
@@ -1418,7 +1418,7 @@
         <v>-0.5695520769204746</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5693687796592712</v>
+        <v>-0.569100022315979</v>
       </c>
       <c r="F31" t="n">
         <v>-225.21070369</v>
@@ -1427,7 +1427,7 @@
         <v>-224.64115395</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.2105227296593</v>
+        <v>-225.210253972316</v>
       </c>
     </row>
     <row r="32">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.6082849275370616</v>
+        <v>-0.6082840757335015</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6101234555244446</v>
+        <v>-0.6063367128372192</v>
       </c>
       <c r="F32" t="n">
         <v>-225.15320785</v>
@@ -1459,7 +1459,7 @@
         <v>-224.54492485</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.1550483055244</v>
+        <v>-225.1512615628372</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1482,7 @@
         <v>-0.5721705153004436</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5693861246109009</v>
+        <v>-0.5731513500213623</v>
       </c>
       <c r="F33" t="n">
         <v>-225.16067088</v>
@@ -1491,7 +1491,7 @@
         <v>-224.58849966</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.1578857846109</v>
+        <v>-225.1616510100214</v>
       </c>
     </row>
     <row r="34">
@@ -1514,7 +1514,7 @@
         <v>-0.5713825885915944</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5708701610565186</v>
+        <v>-0.570563793182373</v>
       </c>
       <c r="F34" t="n">
         <v>-225.21460287</v>
@@ -1523,7 +1523,7 @@
         <v>-224.64322174</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.2140919010565</v>
+        <v>-225.2137855331824</v>
       </c>
     </row>
     <row r="35">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-0.598963326350382</v>
+        <v>-0.5989648740441806</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.596919059753418</v>
+        <v>-0.6020187735557556</v>
       </c>
       <c r="F35" t="n">
         <v>-225.14924704</v>
@@ -1555,7 +1555,7 @@
         <v>-224.55028253</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.1472015897534</v>
+        <v>-225.1523013035558</v>
       </c>
     </row>
     <row r="36">
@@ -1578,7 +1578,7 @@
         <v>-0.5753467631900482</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5749656558036804</v>
+        <v>-0.576978325843811</v>
       </c>
       <c r="F36" t="n">
         <v>-225.12661997</v>
@@ -1587,7 +1587,7 @@
         <v>-224.55127455</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.1262402058037</v>
+        <v>-225.1282528758438</v>
       </c>
     </row>
     <row r="37">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-0.597849176339582</v>
+        <v>-0.5978622480348266</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5985211730003357</v>
+        <v>-0.5993729829788208</v>
       </c>
       <c r="F37" t="n">
         <v>-225.14879146</v>
@@ -1619,7 +1619,7 @@
         <v>-224.55092714</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.1494483130003</v>
+        <v>-225.1503001229788</v>
       </c>
     </row>
     <row r="38">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5730042296299248</v>
+        <v>-0.5730013738499149</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.572114109992981</v>
+        <v>-0.573311448097229</v>
       </c>
       <c r="F38" t="n">
         <v>-225.22030986</v>
@@ -1651,7 +1651,7 @@
         <v>-224.64730754</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.219421649993</v>
+        <v>-225.2206189880972</v>
       </c>
     </row>
     <row r="39">
@@ -1674,7 +1674,7 @@
         <v>-0.5716373608813199</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5704652070999146</v>
+        <v>-0.5706929564476013</v>
       </c>
       <c r="F39" t="n">
         <v>-225.16835081</v>
@@ -1683,7 +1683,7 @@
         <v>-224.59671388</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.1671790870999</v>
+        <v>-225.1674068364476</v>
       </c>
     </row>
     <row r="40">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.6036017744126959</v>
+        <v>-0.6035984544872954</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6004998683929443</v>
+        <v>-0.6024560928344727</v>
       </c>
       <c r="F40" t="n">
         <v>-225.15118284</v>
@@ -1715,7 +1715,7 @@
         <v>-224.54758585</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.1480857183929</v>
+        <v>-225.1500419428345</v>
       </c>
     </row>
     <row r="41">
@@ -1735,10 +1735,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-0.5700965850765869</v>
+        <v>-0.570097279828427</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5726276636123657</v>
+        <v>-0.5721701383590698</v>
       </c>
       <c r="F41" t="n">
         <v>-225.19639428</v>
@@ -1747,7 +1747,7 @@
         <v>-224.62629638</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.1989240436124</v>
+        <v>-225.1984665183591</v>
       </c>
     </row>
     <row r="42">
@@ -1770,7 +1770,7 @@
         <v>-0.5746010627859426</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5737677216529846</v>
+        <v>-0.5765407085418701</v>
       </c>
       <c r="F42" t="n">
         <v>-225.13323739</v>
@@ -1779,7 +1779,7 @@
         <v>-224.55863816</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.132405881653</v>
+        <v>-225.1351788685419</v>
       </c>
     </row>
     <row r="43">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.5721044585748876</v>
+        <v>-0.5721107659655976</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5714386701583862</v>
+        <v>-0.5735291242599487</v>
       </c>
       <c r="F43" t="n">
         <v>-225.21743912</v>
@@ -1811,7 +1811,7 @@
         <v>-224.64532755</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.2167662201584</v>
+        <v>-225.2188566742599</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>-0.5750754110642475</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5715832710266113</v>
+        <v>-0.5726569890975952</v>
       </c>
       <c r="F44" t="n">
         <v>-225.22437654</v>
@@ -1843,7 +1843,7 @@
         <v>-224.64930261</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.2208858810266</v>
+        <v>-225.2219595990976</v>
       </c>
     </row>
     <row r="45">
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.5742640853703698</v>
+        <v>-0.57425583423467</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5739743113517761</v>
+        <v>-0.5749462842941284</v>
       </c>
       <c r="F45" t="n">
         <v>-225.13653641</v>
@@ -1875,7 +1875,7 @@
         <v>-224.56228148</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.1362557913518</v>
+        <v>-225.1372277642941</v>
       </c>
     </row>
     <row r="46">
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.6018381387588946</v>
+        <v>-0.6018363110695932</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.599172830581665</v>
+        <v>-0.6011571884155273</v>
       </c>
       <c r="F46" t="n">
         <v>-225.15044037</v>
@@ -1907,7 +1907,7 @@
         <v>-224.54860703</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.1477798605817</v>
+        <v>-225.1497642184155</v>
       </c>
     </row>
     <row r="47">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.6106646061756771</v>
+        <v>-0.6106681100233369</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6102473735809326</v>
+        <v>-0.6096553802490234</v>
       </c>
       <c r="F47" t="n">
         <v>-225.15425197</v>
@@ -1939,7 +1939,7 @@
         <v>-224.54358377</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.1538311435809</v>
+        <v>-225.153239150249</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.617074196342615</v>
+        <v>-0.61708128011385</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6159605979919434</v>
+        <v>-0.6159636974334717</v>
       </c>
       <c r="F48" t="n">
         <v>-225.15674729</v>
@@ -1971,7 +1971,7 @@
         <v>-224.53966965</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.155630247992</v>
+        <v>-225.1556333474335</v>
       </c>
     </row>
     <row r="49">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.5701531207573776</v>
+        <v>-0.5701550474627777</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5727782249450684</v>
+        <v>-0.5718904137611389</v>
       </c>
       <c r="F49" t="n">
         <v>-225.19510915</v>
@@ -2003,7 +2003,7 @@
         <v>-224.62495396</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.1977321849451</v>
+        <v>-225.1968443737611</v>
       </c>
     </row>
     <row r="50">
@@ -2026,7 +2026,7 @@
         <v>-0.5726498993786353</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5704483985900879</v>
+        <v>-0.5696938037872314</v>
       </c>
       <c r="F50" t="n">
         <v>-225.15437523</v>
@@ -2035,7 +2035,7 @@
         <v>-224.58172431</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.1521727085901</v>
+        <v>-225.1514181137872</v>
       </c>
     </row>
     <row r="51">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.604294671494742</v>
+        <v>-0.6042989241158059</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6028963923454285</v>
+        <v>-0.6032508611679077</v>
       </c>
       <c r="F51" t="n">
         <v>-225.15148204</v>
@@ -2067,7 +2067,7 @@
         <v>-224.54718044</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1500768323454</v>
+        <v>-225.1504313011679</v>
       </c>
     </row>
     <row r="52">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.5709120117424658</v>
+        <v>-0.5709144969093958</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5709458589553833</v>
+        <v>-0.570182204246521</v>
       </c>
       <c r="F52" t="n">
         <v>-225.18012595</v>
@@ -2099,7 +2099,7 @@
         <v>-224.60921028</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.1801561389554</v>
+        <v>-225.1793924842465</v>
       </c>
     </row>
     <row r="53">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-0.5993252189383084</v>
+        <v>-0.5993262526434282</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5995994806289673</v>
+        <v>-0.6023517847061157</v>
       </c>
       <c r="F53" t="n">
         <v>-225.14939796</v>
@@ -2131,7 +2131,7 @@
         <v>-224.55006936</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.149668840629</v>
+        <v>-225.1524211447061</v>
       </c>
     </row>
     <row r="54">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.6053649225615002</v>
+        <v>-0.6053632813307506</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.6018522977828979</v>
+        <v>-0.6030412912368774</v>
       </c>
       <c r="F54" t="n">
         <v>-225.15193714</v>
@@ -2163,7 +2163,7 @@
         <v>-224.54657327</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1484255677829</v>
+        <v>-225.1496145612369</v>
       </c>
     </row>
     <row r="55">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.614510366843581</v>
+        <v>-0.6145143590830719</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6139419078826904</v>
+        <v>-0.611731231212616</v>
       </c>
       <c r="F55" t="n">
         <v>-225.15583215</v>
@@ -2195,7 +2195,7 @@
         <v>-224.5413217</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.1552636078827</v>
+        <v>-225.1530529312126</v>
       </c>
     </row>
     <row r="56">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.6046535004945741</v>
+        <v>-0.6046524934414421</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6029600501060486</v>
+        <v>-0.6041722297668457</v>
       </c>
       <c r="F56" t="n">
         <v>-225.15163323</v>
@@ -2227,7 +2227,7 @@
         <v>-224.54697793</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.149937980106</v>
+        <v>-225.1511501597668</v>
       </c>
     </row>
     <row r="57">
@@ -2250,7 +2250,7 @@
         <v>-0.5749621654174535</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.578406810760498</v>
+        <v>-0.5785739421844482</v>
       </c>
       <c r="F57" t="n">
         <v>-225.12993067</v>
@@ -2259,7 +2259,7 @@
         <v>-224.55496841</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.1333752207605</v>
+        <v>-225.1335423521844</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.6071639295922626</v>
+        <v>-0.6071655569781292</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6050978899002075</v>
+        <v>-0.6031473875045776</v>
       </c>
       <c r="F58" t="n">
         <v>-225.15271825</v>
@@ -2291,7 +2291,7 @@
         <v>-224.54555284</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.1506507299002</v>
+        <v>-225.1487002275046</v>
       </c>
     </row>
     <row r="59">
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.5763963108846949</v>
+        <v>-0.5764001176056167</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5777759552001953</v>
+        <v>-0.5828032493591309</v>
       </c>
       <c r="F59" t="n">
         <v>-225.11835838</v>
@@ -2323,7 +2323,7 @@
         <v>-224.54195773</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.1197336852002</v>
+        <v>-225.1247609793591</v>
       </c>
     </row>
     <row r="60">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.612458818333433</v>
+        <v>-0.6124502052525482</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.613728404045105</v>
+        <v>-0.6124944686889648</v>
       </c>
       <c r="F60" t="n">
         <v>-225.15501117</v>
@@ -2355,7 +2355,7 @@
         <v>-224.54255773</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.1562861340451</v>
+        <v>-225.155052198689</v>
       </c>
     </row>
     <row r="61">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.613962311468883</v>
+        <v>-0.6139654361694777</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6119500398635864</v>
+        <v>-0.6139337420463562</v>
       </c>
       <c r="F61" t="n">
         <v>-225.15562009</v>
@@ -2387,7 +2387,7 @@
         <v>-224.54165841</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.1536084498636</v>
+        <v>-225.1555921520464</v>
       </c>
     </row>
     <row r="62">
@@ -2410,7 +2410,7 @@
         <v>-0.5710106015337281</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5702994465827942</v>
+        <v>-0.5699920654296875</v>
       </c>
       <c r="F62" t="n">
         <v>-225.2129986</v>
@@ -2419,7 +2419,7 @@
         <v>-224.64198939</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.2122888365828</v>
+        <v>-225.2119814554297</v>
       </c>
     </row>
     <row r="63">
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-0.5702706021358139</v>
+        <v>-0.5702750042022141</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5736416578292847</v>
+        <v>-0.5724762082099915</v>
       </c>
       <c r="F63" t="n">
         <v>-225.19249851</v>
@@ -2451,7 +2451,7 @@
         <v>-224.62222307</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.1958647278293</v>
+        <v>-225.19469927821</v>
       </c>
     </row>
     <row r="64">
@@ -2474,7 +2474,7 @@
         <v>-0.5759628644319013</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5756837725639343</v>
+        <v>-0.5805211067199707</v>
       </c>
       <c r="F64" t="n">
         <v>-225.121657</v>
@@ -2483,7 +2483,7 @@
         <v>-224.54569639</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.1213801625639</v>
+        <v>-225.12621749672</v>
       </c>
     </row>
     <row r="65">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.6064358157598543</v>
+        <v>-0.6064389951454785</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.60692298412323</v>
+        <v>-0.6045024394989014</v>
       </c>
       <c r="F65" t="n">
         <v>-225.15240159</v>
@@ -2515,7 +2515,7 @@
         <v>-224.54596298</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.1528859641232</v>
+        <v>-225.1504654194989</v>
       </c>
     </row>
     <row r="66">
@@ -2538,7 +2538,7 @@
         <v>-0.5711938697833618</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5686824917793274</v>
+        <v>-0.567800760269165</v>
       </c>
       <c r="F66" t="n">
         <v>-225.21381632</v>
@@ -2547,7 +2547,7 @@
         <v>-224.64262054</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.2113030317793</v>
+        <v>-225.2104213002692</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.5733197506151511</v>
+        <v>-0.5733237473029531</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5730187296867371</v>
+        <v>-0.5719251036643982</v>
       </c>
       <c r="F67" t="n">
         <v>-225.14634666</v>
@@ -2579,7 +2579,7 @@
         <v>-224.57302276</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.1460414896867</v>
+        <v>-225.1449478636644</v>
       </c>
     </row>
     <row r="68">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-0.5737718956197831</v>
+        <v>-0.5737697674944229</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5745779275894165</v>
+        <v>-0.575336217880249</v>
       </c>
       <c r="F68" t="n">
         <v>-225.14146073</v>
@@ -2611,7 +2611,7 @@
         <v>-224.56768941</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.1422673375894</v>
+        <v>-225.1430256278803</v>
       </c>
     </row>
     <row r="69">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>-0.6000507758520309</v>
+        <v>-0.6000509093344109</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6025433540344238</v>
+        <v>-0.6016282439231873</v>
       </c>
       <c r="F69" t="n">
         <v>-225.14969735</v>
@@ -2643,7 +2643,7 @@
         <v>-224.54964694</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.1521902940344</v>
+        <v>-225.1512751839232</v>
       </c>
     </row>
     <row r="70">
@@ -2666,7 +2666,7 @@
         <v>-0.5727793333099318</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5706318616867065</v>
+        <v>-0.5705709457397461</v>
       </c>
       <c r="F70" t="n">
         <v>-225.15278258</v>
@@ -2675,7 +2675,7 @@
         <v>-224.58000388</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.1506357416867</v>
+        <v>-225.1505748257397</v>
       </c>
     </row>
     <row r="71">
@@ -2698,7 +2698,7 @@
         <v>-0.5719489427687223</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5723554491996765</v>
+        <v>-0.5723695755004883</v>
       </c>
       <c r="F71" t="n">
         <v>-225.16377015</v>
@@ -2707,7 +2707,7 @@
         <v>-224.59182099</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.1641764391997</v>
+        <v>-225.1641905655005</v>
       </c>
     </row>
     <row r="72">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.6094466902658496</v>
+        <v>-0.6094432636128024</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6130074262619019</v>
+        <v>-0.6062654852867126</v>
       </c>
       <c r="F72" t="n">
         <v>-225.15371747</v>
@@ -2739,7 +2739,7 @@
         <v>-224.54427376</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.1572811862619</v>
+        <v>-225.1505392452867</v>
       </c>
     </row>
     <row r="73">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.5700446531399129</v>
+        <v>-0.5700441232979128</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5717812180519104</v>
+        <v>-0.5714340806007385</v>
       </c>
       <c r="F73" t="n">
         <v>-225.19766569</v>
@@ -2771,7 +2771,7 @@
         <v>-224.62762317</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.1994043880519</v>
+        <v>-225.1990572506007</v>
       </c>
     </row>
     <row r="74">
@@ -2794,7 +2794,7 @@
         <v>-0.571750254754158</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5720804929733276</v>
+        <v>-0.5701595544815063</v>
       </c>
       <c r="F74" t="n">
         <v>-225.21608252</v>
@@ -2803,7 +2803,7 @@
         <v>-224.64433378</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.2164142729733</v>
+        <v>-225.2144933344815</v>
       </c>
     </row>
     <row r="75">
@@ -2826,7 +2826,7 @@
         <v>-0.5717369579303664</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5703901052474976</v>
+        <v>-0.5718016624450684</v>
       </c>
       <c r="F75" t="n">
         <v>-225.16683339</v>
@@ -2835,7 +2835,7 @@
         <v>-224.59509509</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.1654851952475</v>
+        <v>-225.1668967524451</v>
       </c>
     </row>
     <row r="76">
@@ -2858,7 +2858,7 @@
         <v>-0.5715654193381567</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5695227384567261</v>
+        <v>-0.5671646595001221</v>
       </c>
       <c r="F76" t="n">
         <v>-225.21535784</v>
@@ -2867,7 +2867,7 @@
         <v>-224.64379272</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2133154584567</v>
+        <v>-225.2109573795001</v>
       </c>
     </row>
     <row r="77">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.5736189221968788</v>
+        <v>-0.5736188464240288</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5745302438735962</v>
+        <v>-0.5749201774597168</v>
       </c>
       <c r="F77" t="n">
         <v>-225.14309446</v>
@@ -2899,7 +2899,7 @@
         <v>-224.56947616</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.1440064038736</v>
+        <v>-225.1443963374597</v>
       </c>
     </row>
     <row r="78">
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.6007669397461133</v>
+        <v>-0.6007653811692248</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5990463495254517</v>
+        <v>-0.5994675159454346</v>
       </c>
       <c r="F78" t="n">
         <v>-225.14999534</v>
@@ -2931,7 +2931,7 @@
         <v>-224.54922831</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.1482746595254</v>
+        <v>-225.1486958259454</v>
       </c>
     </row>
     <row r="79">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.5722900165668056</v>
+        <v>-0.5722943947915655</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5704076290130615</v>
+        <v>-0.5743303894996643</v>
       </c>
       <c r="F79" t="n">
         <v>-225.2180722</v>
@@ -2963,7 +2963,7 @@
         <v>-224.64578058</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.2161882090131</v>
+        <v>-225.2201109694997</v>
       </c>
     </row>
     <row r="80">
@@ -2986,7 +2986,7 @@
         <v>-0.5749033249091441</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5760041475296021</v>
+        <v>-0.5743453502655029</v>
       </c>
       <c r="F80" t="n">
         <v>-225.22417974</v>
@@ -2995,7 +2995,7 @@
         <v>-224.64927643</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.2252805775296</v>
+        <v>-225.2236217802655</v>
       </c>
     </row>
     <row r="81">
@@ -3018,7 +3018,7 @@
         <v>-0.5724032009911468</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5696707963943481</v>
+        <v>-0.5717734098434448</v>
       </c>
       <c r="F81" t="n">
         <v>-225.15753907</v>
@@ -3027,7 +3027,7 @@
         <v>-224.58513419</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.1548049863943</v>
+        <v>-225.1569075998434</v>
       </c>
     </row>
     <row r="82">
@@ -3050,7 +3050,7 @@
         <v>-0.5722883940892329</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5697486400604248</v>
+        <v>-0.5723632574081421</v>
       </c>
       <c r="F82" t="n">
         <v>-225.15910909</v>
@@ -3059,7 +3059,7 @@
         <v>-224.58682254</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.1565711800604</v>
+        <v>-225.1591857974081</v>
       </c>
     </row>
     <row r="83">
@@ -3082,7 +3082,7 @@
         <v>-0.5747338104517342</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5745917558670044</v>
+        <v>-0.5693529844284058</v>
       </c>
       <c r="F83" t="n">
         <v>-225.22395824</v>
@@ -3091,7 +3091,7 @@
         <v>-224.64922565</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.223817405867</v>
+        <v>-225.2185786344284</v>
       </c>
     </row>
     <row r="84">
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>-0.5702108480582565</v>
+        <v>-0.5702140057653566</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5735875964164734</v>
+        <v>-0.5720028281211853</v>
       </c>
       <c r="F84" t="n">
         <v>-225.19381029</v>
@@ -3123,7 +3123,7 @@
         <v>-224.62359591</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.1971835064165</v>
+        <v>-225.1955987381212</v>
       </c>
     </row>
     <row r="85">
@@ -3146,7 +3146,7 @@
         <v>-0.5743893535247506</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.5759549140930176</v>
+        <v>-0.5743664503097534</v>
       </c>
       <c r="F85" t="n">
         <v>-225.22343999</v>
@@ -3155,7 +3155,7 @@
         <v>-224.64904981</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.225004724093</v>
+        <v>-225.2234162603098</v>
       </c>
     </row>
     <row r="86">
@@ -3178,7 +3178,7 @@
         <v>-0.569419618674377</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.57072913646698</v>
+        <v>-0.5707205533981323</v>
       </c>
       <c r="F86" t="n">
         <v>-225.21498399</v>
@@ -3187,7 +3187,7 @@
         <v>-224.64556302</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.216292156467</v>
+        <v>-225.2162835733981</v>
       </c>
     </row>
     <row r="87">
@@ -3207,10 +3207,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.6014815144032166</v>
+        <v>-0.6014800364725927</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.6004629135131836</v>
+        <v>-0.6022616624832153</v>
       </c>
       <c r="F87" t="n">
         <v>-225.15029228</v>
@@ -3219,7 +3219,7 @@
         <v>-224.54881328</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.1492761935132</v>
+        <v>-225.1510749424832</v>
       </c>
     </row>
     <row r="88">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.6039572519604605</v>
+        <v>-0.6039537019514605</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.6007061004638672</v>
+        <v>-0.5992764234542847</v>
       </c>
       <c r="F88" t="n">
         <v>-225.15133214</v>
@@ -3251,7 +3251,7 @@
         <v>-224.54738287</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.1480889704639</v>
+        <v>-225.1466592934543</v>
       </c>
     </row>
     <row r="89">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.6157043586915605</v>
+        <v>-0.6157100257686676</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.6187148094177246</v>
+        <v>-0.6154300570487976</v>
       </c>
       <c r="F89" t="n">
         <v>-225.15627484</v>
@@ -3283,7 +3283,7 @@
         <v>-224.54056667</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.1592814794177</v>
+        <v>-225.1559967270488</v>
       </c>
     </row>
     <row r="90">
@@ -3306,7 +3306,7 @@
         <v>-0.5695186566257783</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5700982809066772</v>
+        <v>-0.5708341002464294</v>
       </c>
       <c r="F90" t="n">
         <v>-225.21179773</v>
@@ -3315,7 +3315,7 @@
         <v>-224.64228257</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.2123808509067</v>
+        <v>-225.2131166702464</v>
       </c>
     </row>
     <row r="91">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.6079095494406581</v>
+        <v>-0.607909554448238</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.6108505725860596</v>
+        <v>-0.6056092977523804</v>
       </c>
       <c r="F91" t="n">
         <v>-225.15304251</v>
@@ -3347,7 +3347,7 @@
         <v>-224.54513631</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.1559868825861</v>
+        <v>-225.1507456077524</v>
       </c>
     </row>
     <row r="92">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.6032480595171219</v>
+        <v>-0.6032449940704212</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5998576879501343</v>
+        <v>-0.6000499725341797</v>
       </c>
       <c r="F92" t="n">
         <v>-225.15103385</v>
@@ -3379,7 +3379,7 @@
         <v>-224.54778894</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.1476466279501</v>
+        <v>-225.1478389125342</v>
       </c>
     </row>
     <row r="93">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.5699895293368764</v>
+        <v>-0.5699878168848764</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5736703276634216</v>
+        <v>-0.5730781555175781</v>
       </c>
       <c r="F93" t="n">
         <v>-225.19892339</v>
@@ -3411,7 +3411,7 @@
         <v>-224.62893443</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.2026047576634</v>
+        <v>-225.2020125855176</v>
       </c>
     </row>
     <row r="94">
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-0.5697550052203271</v>
+        <v>-0.5697475921651269</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5729038715362549</v>
+        <v>-0.5728347897529602</v>
       </c>
       <c r="F94" t="n">
         <v>-225.20499924</v>
@@ -3443,7 +3443,7 @@
         <v>-224.63525132</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.2081551915363</v>
+        <v>-225.208086109753</v>
       </c>
     </row>
     <row r="95">
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.6163640419105937</v>
+        <v>-0.6163704520684232</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.6159434914588928</v>
+        <v>-0.6194570064544678</v>
       </c>
       <c r="F95" t="n">
         <v>-225.15650688</v>
@@ -3475,7 +3475,7 @@
         <v>-224.54013901</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.1560825014589</v>
+        <v>-225.1595960164545</v>
       </c>
     </row>
     <row r="96">
@@ -3498,7 +3498,7 @@
         <v>-0.569365141572671</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5714823007583618</v>
+        <v>-0.5675927996635437</v>
       </c>
       <c r="F96" t="n">
         <v>-225.21702545</v>
@@ -3507,7 +3507,7 @@
         <v>-224.64765896</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.2191412607584</v>
+        <v>-225.2152517596635</v>
       </c>
     </row>
     <row r="97">
@@ -3530,7 +3530,7 @@
         <v>-0.5700579705658719</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.568833589553833</v>
+        <v>-0.5710577964782715</v>
       </c>
       <c r="F97" t="n">
         <v>-225.20843107</v>
@@ -3539,7 +3539,7 @@
         <v>-224.63837155</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.2072051395538</v>
+        <v>-225.2094293464783</v>
       </c>
     </row>
     <row r="98">
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>-0.5698439420038199</v>
+        <v>-0.56983868476376</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.571983814239502</v>
+        <v>-0.572425365447998</v>
       </c>
       <c r="F98" t="n">
         <v>-225.2026122</v>
@@ -3571,7 +3571,7 @@
         <v>-224.63277315</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.2047569642395</v>
+        <v>-225.205198515448</v>
       </c>
     </row>
     <row r="99">
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.5706132433569426</v>
+        <v>-0.5706091640160826</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.5733190774917603</v>
+        <v>-0.5686830878257751</v>
       </c>
       <c r="F99" t="n">
         <v>-225.18574678</v>
@@ -3603,7 +3603,7 @@
         <v>-224.61513643</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.1884555074918</v>
+        <v>-225.1838195178258</v>
       </c>
     </row>
     <row r="100">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.5982318045483885</v>
+        <v>-0.59823437805594</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.6008403301239014</v>
+        <v>-0.6012489795684814</v>
       </c>
       <c r="F100" t="n">
         <v>-225.14894389</v>
@@ -3635,7 +3635,7 @@
         <v>-224.55071114</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.1515514701239</v>
+        <v>-225.1519601195685</v>
       </c>
     </row>
     <row r="101">
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>-0.5705354904407367</v>
+        <v>-0.5705396290001568</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5712393522262573</v>
+        <v>-0.5700058937072754</v>
       </c>
       <c r="F101" t="n">
         <v>-225.18712249</v>
@@ -3667,7 +3667,7 @@
         <v>-224.61658322</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.1878225722263</v>
+        <v>-225.1865891137073</v>
       </c>
     </row>
     <row r="102">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6115386742022637</v>
+        <v>-0.611531271396224</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6119972467422485</v>
+        <v>-0.6097770929336548</v>
       </c>
       <c r="F102" t="n">
         <v>-225.15462441</v>
@@ -3699,7 +3699,7 @@
         <v>-224.54309061</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.1550878567423</v>
+        <v>-225.1528677029337</v>
       </c>
     </row>
     <row r="103">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6025437120402236</v>
+        <v>-0.602541230025824</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.59828782081604</v>
+        <v>-0.6001795530319214</v>
       </c>
       <c r="F103" t="n">
         <v>-225.15073678</v>
@@ -3731,7 +3731,7 @@
         <v>-224.54819666</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.146484480816</v>
+        <v>-225.1483762130319</v>
       </c>
     </row>
     <row r="104">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.6021908312299911</v>
+        <v>-0.6021886758040607</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5999219417572021</v>
+        <v>-0.6004092693328857</v>
       </c>
       <c r="F104" t="n">
         <v>-225.15058854</v>
@@ -3763,7 +3763,7 @@
         <v>-224.54840141</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.1483233517572</v>
+        <v>-225.1488106793329</v>
       </c>
     </row>
     <row r="105">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.5761690551030501</v>
+        <v>-0.5761787090160184</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5782076120376587</v>
+        <v>-0.5816256999969482</v>
       </c>
       <c r="F105" t="n">
         <v>-225.12000658</v>
@@ -3795,7 +3795,7 @@
         <v>-224.54382897</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.1220365820377</v>
+        <v>-225.1254546699969</v>
       </c>
     </row>
     <row r="106">
@@ -3818,7 +3818,7 @@
         <v>-0.5755450847840682</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.5763024091720581</v>
+        <v>-0.579296350479126</v>
       </c>
       <c r="F106" t="n">
         <v>-225.12496456</v>
@@ -3827,7 +3827,7 @@
         <v>-224.54941959</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.1257219991721</v>
+        <v>-225.1287159404791</v>
       </c>
     </row>
     <row r="107">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.5704673308746466</v>
+        <v>-0.5704686464712165</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5708253383636475</v>
+        <v>-0.5683267116546631</v>
       </c>
       <c r="F107" t="n">
         <v>-225.1884852</v>
@@ -3859,7 +3859,7 @@
         <v>-224.61801487</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.1888402083636</v>
+        <v>-225.1863415816547</v>
       </c>
     </row>
     <row r="108">
@@ -3882,7 +3882,7 @@
         <v>-0.5698671861104683</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5745859146118164</v>
+        <v>-0.5771498680114746</v>
       </c>
       <c r="F108" t="n">
         <v>-225.2074206</v>
@@ -3891,7 +3891,7 @@
         <v>-224.63755424</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.2121401546118</v>
+        <v>-225.2147041080115</v>
       </c>
     </row>
     <row r="109">
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.6150845999144803</v>
+        <v>-0.6150894474652397</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.6142058372497559</v>
+        <v>-0.6150457859039307</v>
       </c>
       <c r="F109" t="n">
         <v>-225.1560492</v>
@@ -3923,7 +3923,7 @@
         <v>-224.54096077</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.1551666072498</v>
+        <v>-225.1560065559039</v>
       </c>
     </row>
     <row r="110">
@@ -3946,7 +3946,7 @@
         <v>-0.5744256408985587</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.5731140375137329</v>
+        <v>-0.5762565135955811</v>
       </c>
       <c r="F110" t="n">
         <v>-225.13488803</v>
@@ -3955,7 +3955,7 @@
         <v>-224.56046324</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.1335772775137</v>
+        <v>-225.1367197535956</v>
       </c>
     </row>
     <row r="111">
@@ -3978,7 +3978,7 @@
         <v>-0.5693404004621456</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.5709776878356934</v>
+        <v>-0.5643830299377441</v>
       </c>
       <c r="F111" t="n">
         <v>-225.21802077</v>
@@ -3987,7 +3987,7 @@
         <v>-224.6486793</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.2196569878357</v>
+        <v>-225.2130623299377</v>
       </c>
     </row>
     <row r="112">
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-0.6060856167671695</v>
+        <v>-0.6060819905245992</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.6090359687805176</v>
+        <v>-0.6055285930633545</v>
       </c>
       <c r="F112" t="n">
         <v>-225.15224536</v>
@@ -4019,7 +4019,7 @@
         <v>-224.54616741</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.1552033787805</v>
+        <v>-225.1516960030634</v>
       </c>
     </row>
     <row r="113">
@@ -4042,7 +4042,7 @@
         <v>-0.5696260896749926</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5694941282272339</v>
+        <v>-0.5700998306274414</v>
       </c>
       <c r="F113" t="n">
         <v>-225.2084679</v>
@@ -4051,7 +4051,7 @@
         <v>-224.63884391</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2083380382272</v>
+        <v>-225.2089437406274</v>
       </c>
     </row>
     <row r="114">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.5710772191776217</v>
+        <v>-0.5710831502878115</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5704069137573242</v>
+        <v>-0.5680769681930542</v>
       </c>
       <c r="F114" t="n">
         <v>-225.17724616</v>
@@ -4083,7 +4083,7 @@
         <v>-224.60616436</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.1765712737573</v>
+        <v>-225.1742413281931</v>
       </c>
     </row>
     <row r="115">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-0.6134390525302247</v>
+        <v>-0.6134413273039596</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.6149200201034546</v>
+        <v>-0.6137416362762451</v>
       </c>
       <c r="F115" t="n">
         <v>-225.15541291</v>
@@ -4115,7 +4115,7 @@
         <v>-224.54197483</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.1568948501034</v>
+        <v>-225.1557164662762</v>
       </c>
     </row>
     <row r="116">
@@ -4138,7 +4138,7 @@
         <v>-0.5704414495511128</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5708361268043518</v>
+        <v>-0.5677916407585144</v>
       </c>
       <c r="F116" t="n">
         <v>-225.21035435</v>
@@ -4147,7 +4147,7 @@
         <v>-224.63991196</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.2107480868044</v>
+        <v>-225.2077036007585</v>
       </c>
     </row>
     <row r="117">
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.5733586425614038</v>
+        <v>-0.5733524371954738</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.572254478931427</v>
+        <v>-0.5750936269760132</v>
       </c>
       <c r="F117" t="n">
         <v>-225.22125643</v>
@@ -4179,7 +4179,7 @@
         <v>-224.64790343</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.2201579089314</v>
+        <v>-225.222997056976</v>
       </c>
     </row>
     <row r="118">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.570994347007643</v>
+        <v>-0.5709984999126529</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5715572237968445</v>
+        <v>-0.5696224570274353</v>
       </c>
       <c r="F118" t="n">
         <v>-225.17869154</v>
@@ -4211,7 +4211,7 @@
         <v>-224.607694</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.1792512237969</v>
+        <v>-225.1773164570274</v>
       </c>
     </row>
     <row r="119">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.5730339416531756</v>
+        <v>-0.5730419894785765</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.5727648138999939</v>
+        <v>-0.5721237659454346</v>
       </c>
       <c r="F119" t="n">
         <v>-225.14957731</v>
@@ -4243,7 +4243,7 @@
         <v>-224.57653308</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.1492978939</v>
+        <v>-225.1486568459454</v>
       </c>
     </row>
     <row r="120">
@@ -4266,7 +4266,7 @@
         <v>-0.5702540858771374</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.5662550926208496</v>
+        <v>-0.5684846639633179</v>
       </c>
       <c r="F120" t="n">
         <v>-225.20940896</v>
@@ -4275,7 +4275,7 @@
         <v>-224.63915726</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.2054123526208</v>
+        <v>-225.2076419239633</v>
       </c>
     </row>
     <row r="121">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>-0.5704042996527972</v>
+        <v>-0.5704027352646671</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5689257383346558</v>
+        <v>-0.5692797899246216</v>
       </c>
       <c r="F121" t="n">
         <v>-225.18983597</v>
@@ -4307,7 +4307,7 @@
         <v>-224.61943262</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.1883583583347</v>
+        <v>-225.1887124099246</v>
       </c>
     </row>
     <row r="122">
@@ -4330,7 +4330,7 @@
         <v>-0.57421897592723</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.5763782262802124</v>
+        <v>-0.5747647285461426</v>
       </c>
       <c r="F122" t="n">
         <v>-225.22314238</v>
@@ -4339,7 +4339,7 @@
         <v>-224.6489239</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.2253021262802</v>
+        <v>-225.2236886285461</v>
       </c>
     </row>
     <row r="123">
@@ -4362,7 +4362,7 @@
         <v>-0.5740485705345985</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.5751358270645142</v>
+        <v>-0.5756357908248901</v>
       </c>
       <c r="F123" t="n">
         <v>-225.22281885</v>
@@ -4371,7 +4371,7 @@
         <v>-224.64877247</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.2239082970645</v>
+        <v>-225.2244082608249</v>
       </c>
     </row>
     <row r="124">
@@ -4394,7 +4394,7 @@
         <v>-0.5706315571849574</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.5697016716003418</v>
+        <v>-0.5683912038803101</v>
       </c>
       <c r="F124" t="n">
         <v>-225.21126824</v>
@@ -4403,7 +4403,7 @@
         <v>-224.64063538</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.2103370516003</v>
+        <v>-225.2090265838803</v>
       </c>
     </row>
     <row r="125">
@@ -4426,7 +4426,7 @@
         <v>-0.5729096553727843</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5726470947265625</v>
+        <v>-0.5709284543991089</v>
       </c>
       <c r="F125" t="n">
         <v>-225.15118321</v>
@@ -4435,7 +4435,7 @@
         <v>-224.5782734</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.1509204947266</v>
+        <v>-225.1492018543991</v>
       </c>
     </row>
     <row r="126">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-0.6028957862270695</v>
+        <v>-0.6028930064052287</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.600412130355835</v>
+        <v>-0.6012421846389771</v>
       </c>
       <c r="F126" t="n">
         <v>-225.15088523</v>
@@ -4467,7 +4467,7 @@
         <v>-224.54799256</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.1484046903558</v>
+        <v>-225.149234744639</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5731737308720568</v>
+        <v>-0.5731797435136282</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5736947059631348</v>
+        <v>-0.5741573572158813</v>
       </c>
       <c r="F127" t="n">
         <v>-225.14796466</v>
@@ -4499,7 +4499,7 @@
         <v>-224.57478236</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.1484770659631</v>
+        <v>-225.1489397172159</v>
       </c>
     </row>
     <row r="128">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.5703318305050837</v>
+        <v>-0.5703375878757837</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.5703983306884766</v>
+        <v>-0.5713746547698975</v>
       </c>
       <c r="F128" t="n">
         <v>-225.19117363</v>
@@ -4531,7 +4531,7 @@
         <v>-224.62083522</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.1912335506885</v>
+        <v>-225.1922098747699</v>
       </c>
     </row>
     <row r="129">
@@ -4554,7 +4554,7 @@
         <v>-0.5751519840580216</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.5774082541465759</v>
+        <v>-0.5780354142189026</v>
       </c>
       <c r="F129" t="n">
         <v>-225.12827565</v>
@@ -4563,7 +4563,7 @@
         <v>-224.55312442</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.1305326741466</v>
+        <v>-225.1311598342189</v>
       </c>
     </row>
     <row r="130">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.6098561811113132</v>
+        <v>-0.6098442393686759</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.6104933023452759</v>
+        <v>-0.6089625954627991</v>
       </c>
       <c r="F130" t="n">
         <v>-225.15389276</v>
@@ -4595,7 +4595,7 @@
         <v>-224.54404918</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.1545424823453</v>
+        <v>-225.1530117754628</v>
       </c>
     </row>
     <row r="131">
@@ -4615,10 +4615,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.6003990684714539</v>
+        <v>-0.6004073735440025</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5989189743995667</v>
+        <v>-0.5986961126327515</v>
       </c>
       <c r="F131" t="n">
         <v>-225.14984666</v>
@@ -4627,7 +4627,7 @@
         <v>-224.54943721</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.1483561843996</v>
+        <v>-225.1481333226328</v>
       </c>
     </row>
     <row r="132">
@@ -4647,10 +4647,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.6057123296422098</v>
+        <v>-0.6057169174033434</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.6057877540588379</v>
+        <v>-0.6035935282707214</v>
       </c>
       <c r="F132" t="n">
         <v>-225.15209065</v>
@@ -4659,7 +4659,7 @@
         <v>-224.54637048</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.1521582340588</v>
+        <v>-225.1499640082707</v>
       </c>
     </row>
     <row r="133">
@@ -4682,7 +4682,7 @@
         <v>-0.5708235484094974</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5697412490844727</v>
+        <v>-0.569617748260498</v>
       </c>
       <c r="F133" t="n">
         <v>-225.21214914</v>
@@ -4691,7 +4691,7 @@
         <v>-224.64132757</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.2110688190845</v>
+        <v>-225.2109453182605</v>
       </c>
     </row>
     <row r="134">
@@ -4714,7 +4714,7 @@
         <v>-0.5693938433051956</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5684571862220764</v>
+        <v>-0.5681105256080627</v>
       </c>
       <c r="F134" t="n">
         <v>-225.21601304</v>
@@ -4723,7 +4723,7 @@
         <v>-224.64662003</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.2150772162221</v>
+        <v>-225.2147305556081</v>
       </c>
     </row>
     <row r="135">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.6102607379031021</v>
+        <v>-0.6102562577416173</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.6118799448013306</v>
+        <v>-0.6095491647720337</v>
       </c>
       <c r="F135" t="n">
         <v>-225.15407087</v>
@@ -4755,7 +4755,7 @@
         <v>-224.54381946</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.1556994048013</v>
+        <v>-225.153368624772</v>
       </c>
     </row>
     <row r="136">
@@ -4778,7 +4778,7 @@
         <v>-0.5714417508472578</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5699670314788818</v>
+        <v>-0.5725317001342773</v>
       </c>
       <c r="F136" t="n">
         <v>-225.17135702</v>
@@ -4787,7 +4787,7 @@
         <v>-224.59991502</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.1698820514789</v>
+        <v>-225.1724467201343</v>
       </c>
     </row>
     <row r="137">
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.5707575560615421</v>
+        <v>-0.5707567292532821</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5731303691864014</v>
+        <v>-0.5707899332046509</v>
       </c>
       <c r="F137" t="n">
         <v>-225.18295981</v>
@@ -4819,7 +4819,7 @@
         <v>-224.6122011</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.1853314691864</v>
+        <v>-225.1829910332046</v>
       </c>
     </row>
     <row r="138">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.5728273294615436</v>
+        <v>-0.5728261937064738</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5720821619033813</v>
+        <v>-0.5732671022415161</v>
       </c>
       <c r="F138" t="n">
         <v>-225.21979412</v>
@@ -4851,7 +4851,7 @@
         <v>-224.64696791</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.2190500719034</v>
+        <v>-225.2202350122415</v>
       </c>
     </row>
     <row r="139">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.6187529502304283</v>
+        <v>-0.6187609460167294</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.6175177693367004</v>
+        <v>-0.612399697303772</v>
       </c>
       <c r="F139" t="n">
         <v>-225.15728178</v>
@@ -4883,7 +4883,7 @@
         <v>-224.53851726</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.1560350293367</v>
+        <v>-225.1509169573038</v>
       </c>
     </row>
     <row r="140">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.5739316363133222</v>
+        <v>-0.5739274748551342</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.5749052166938782</v>
+        <v>-0.5739690065383911</v>
       </c>
       <c r="F140" t="n">
         <v>-225.13982306</v>
@@ -4915,7 +4915,7 @@
         <v>-224.56589467</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.1407998866939</v>
+        <v>-225.1398636765384</v>
       </c>
     </row>
     <row r="141">
@@ -4935,10 +4935,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.5708353560912039</v>
+        <v>-0.5708361748825739</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.5716830492019653</v>
+        <v>-0.5701398849487305</v>
       </c>
       <c r="F141" t="n">
         <v>-225.18154853</v>
@@ -4947,7 +4947,7 @@
         <v>-224.61071244</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.182395489202</v>
+        <v>-225.1808523249487</v>
       </c>
     </row>
     <row r="142">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.6110962722665527</v>
+        <v>-0.6110895930740259</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.6125904321670532</v>
+        <v>-0.6130475997924805</v>
       </c>
       <c r="F142" t="n">
         <v>-225.15443649</v>
@@ -4979,7 +4979,7 @@
         <v>-224.54334155</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.1559319821671</v>
+        <v>-225.1563891497925</v>
       </c>
     </row>
     <row r="143">
@@ -4999,10 +4999,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.5697104606066512</v>
+        <v>-0.5697020162996813</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5725177526473999</v>
+        <v>-0.5737415552139282</v>
       </c>
       <c r="F143" t="n">
         <v>-225.20617064</v>
@@ -5011,7 +5011,7 @@
         <v>-224.63646572</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.2089834726474</v>
+        <v>-225.2102072752139</v>
       </c>
     </row>
     <row r="144">
@@ -5034,7 +5034,7 @@
         <v>-0.5738734471869026</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.5767297744750977</v>
+        <v>-0.5759363174438477</v>
       </c>
       <c r="F144" t="n">
         <v>-225.22246863</v>
@@ -5043,7 +5043,7 @@
         <v>-224.64859473</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.2253245044751</v>
+        <v>-225.2245310474439</v>
       </c>
     </row>
     <row r="145">
@@ -5063,10 +5063,10 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.5699424138322871</v>
+        <v>-0.569939506300287</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5733504891395569</v>
+        <v>-0.5732840895652771</v>
       </c>
       <c r="F145" t="n">
         <v>-225.20016739</v>
@@ -5075,7 +5075,7 @@
         <v>-224.63023023</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.2035807191396</v>
+        <v>-225.2035143195653</v>
       </c>
     </row>
     <row r="146">
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.6050146766858882</v>
+        <v>-0.6050084952480437</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.6040309071540833</v>
+        <v>-0.6062963008880615</v>
       </c>
       <c r="F146" t="n">
         <v>-225.15178476</v>
@@ -5107,7 +5107,7 @@
         <v>-224.5467757</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.1508066071541</v>
+        <v>-225.1530720008881</v>
       </c>
     </row>
     <row r="147">
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.5724660278220236</v>
+        <v>-0.5724685057406937</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5722757577896118</v>
+        <v>-0.5728706121444702</v>
       </c>
       <c r="F147" t="n">
         <v>-225.2186757</v>
@@ -5139,7 +5139,7 @@
         <v>-224.64620483</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.2184805877896</v>
+        <v>-225.2190754421445</v>
       </c>
     </row>
     <row r="148">
@@ -5162,7 +5162,7 @@
         <v>-0.5694504072074273</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.5679035782814026</v>
+        <v>-0.5685465335845947</v>
       </c>
       <c r="F148" t="n">
         <v>-225.21393834</v>
@@ -5171,7 +5171,7 @@
         <v>-224.64448761</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.2123911882814</v>
+        <v>-225.2130341435846</v>
       </c>
     </row>
     <row r="149">
@@ -5194,7 +5194,7 @@
         <v>-0.5696707224692732</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.5704843997955322</v>
+        <v>-0.5665805339813232</v>
       </c>
       <c r="F149" t="n">
         <v>-225.20637742</v>
@@ -5203,7 +5203,7 @@
         <v>-224.63670634</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.2071907397955</v>
+        <v>-225.2032868739813</v>
       </c>
     </row>
     <row r="150">
@@ -5226,7 +5226,7 @@
         <v>-0.5694819473119066</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5677949786186218</v>
+        <v>-0.5696530938148499</v>
       </c>
       <c r="F150" t="n">
         <v>-225.21287624</v>
@@ -5235,7 +5235,7 @@
         <v>-224.64339413</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.2111891086186</v>
+        <v>-225.2130472238148</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.5734676617789987</v>
+        <v>-0.5734696190076687</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5739479064941406</v>
+        <v>-0.5740289092063904</v>
       </c>
       <c r="F151" t="n">
         <v>-225.14472311</v>
@@ -5267,7 +5267,7 @@
         <v>-224.57125388</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.1452017864941</v>
+        <v>-225.1452827892064</v>
       </c>
     </row>
     <row r="152">
@@ -5290,7 +5290,7 @@
         <v>-0.5713487626901996</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5688177943229675</v>
+        <v>-0.57246994972229</v>
       </c>
       <c r="F152" t="n">
         <v>-225.17284518</v>
@@ -5299,7 +5299,7 @@
         <v>-224.60149696</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.170314754323</v>
+        <v>-225.1739669097223</v>
       </c>
     </row>
     <row r="153">
@@ -5322,7 +5322,7 @@
         <v>-0.5745611443759882</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.5727217197418213</v>
+        <v>-0.5737084150314331</v>
       </c>
       <c r="F153" t="n">
         <v>-225.22371189</v>
@@ -5331,7 +5331,7 @@
         <v>-224.64915037</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.2218720897418</v>
+        <v>-225.2228587850314</v>
       </c>
     </row>
   </sheetData>
